--- a/Data/AA-CSIA_ALOHA_Winter.xlsx
+++ b/Data/AA-CSIA_ALOHA_Winter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40c9661624813381/Documents/University_of_Hawaii/SIA_work/EXPORTS/Data/Data Compilation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40c9661624813381/Documents/R/AA-CSIA-Organic-Matter-Supply-Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1055" documentId="13_ncr:1_{47D0C447-CF42-44CE-A2DC-F04BD3ED6669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829C546D-9621-4DFE-B0EB-D627F9D2E281}"/>
+  <xr:revisionPtr revIDLastSave="1065" documentId="13_ncr:1_{47D0C447-CF42-44CE-A2DC-F04BD3ED6669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC733CFC-4020-4B3E-9BBB-B240412B21EC}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="1" activeTab="1" xr2:uid="{8FC557E2-921B-4618-B5F4-A9A2FDF78F4B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="143">
   <si>
     <t>Tow</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Gaussia</t>
   </si>
   <si>
-    <t>unk</t>
-  </si>
-  <si>
     <t>Supor</t>
   </si>
   <si>
@@ -387,6 +384,93 @@
   </si>
   <si>
     <t>Sizecat</t>
+  </si>
+  <si>
+    <t>d15NAla</t>
+  </si>
+  <si>
+    <t>d15NGly</t>
+  </si>
+  <si>
+    <t>d15NThr</t>
+  </si>
+  <si>
+    <t>d15NSer</t>
+  </si>
+  <si>
+    <t>d15NVal</t>
+  </si>
+  <si>
+    <t>d15NLeu</t>
+  </si>
+  <si>
+    <t>d15NIle</t>
+  </si>
+  <si>
+    <t>d15NPro</t>
+  </si>
+  <si>
+    <t>d15NAsx</t>
+  </si>
+  <si>
+    <t>d15NMet</t>
+  </si>
+  <si>
+    <t>d15NGlx</t>
+  </si>
+  <si>
+    <t>d15NPhe</t>
+  </si>
+  <si>
+    <t>d15NTyr</t>
+  </si>
+  <si>
+    <t>d15NLys</t>
+  </si>
+  <si>
+    <t>SDd15NAla</t>
+  </si>
+  <si>
+    <t>SDd15NGly</t>
+  </si>
+  <si>
+    <t>SDd15NThr</t>
+  </si>
+  <si>
+    <t>SDd15NSer</t>
+  </si>
+  <si>
+    <t>SDd15NVal</t>
+  </si>
+  <si>
+    <t>SDd15NLeu</t>
+  </si>
+  <si>
+    <t>SDd15NIle</t>
+  </si>
+  <si>
+    <t>SDd15NPro</t>
+  </si>
+  <si>
+    <t>SDd15NAsx</t>
+  </si>
+  <si>
+    <t>SDd15NMet</t>
+  </si>
+  <si>
+    <t>SDd15NGlx</t>
+  </si>
+  <si>
+    <t>SDd15NPhe</t>
+  </si>
+  <si>
+    <t>SDd15NTyr</t>
+  </si>
+  <si>
+    <t>SDd15NLys</t>
+  </si>
+  <si>
+    <t>Taxa</t>
   </si>
 </sst>
 </file>
@@ -22612,10 +22696,10 @@
   <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1"/>
+      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -22635,7 +22719,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>35</v>
@@ -22659,7 +22743,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>79</v>
@@ -22671,93 +22755,93 @@
         <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -22769,10 +22853,10 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
       <c r="I2" t="s">
         <v>76</v>
@@ -22781,7 +22865,7 @@
         <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M2" s="11">
         <v>2.4471666666666669</v>
@@ -22868,7 +22952,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>98</v>
@@ -22880,10 +22964,10 @@
         <v>120</v>
       </c>
       <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
         <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
       </c>
       <c r="I3" t="s">
         <v>76</v>
@@ -22967,7 +23051,7 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>98</v>
@@ -22979,10 +23063,10 @@
         <v>150</v>
       </c>
       <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
         <v>102</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>76</v>
@@ -23080,7 +23164,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>98</v>
@@ -23092,10 +23176,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
         <v>102</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
       </c>
       <c r="I5" t="s">
         <v>76</v>
@@ -23193,7 +23277,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>98</v>
@@ -23205,10 +23289,10 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
         <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
       </c>
       <c r="I6" t="s">
         <v>77</v>
@@ -23217,7 +23301,7 @@
         <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M6" s="11">
         <v>2.803984866340846</v>
@@ -23306,7 +23390,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>98</v>
@@ -23318,10 +23402,10 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" t="s">
         <v>106</v>
-      </c>
-      <c r="H7" t="s">
-        <v>107</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -23330,7 +23414,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M7" s="11">
         <v>2.5840000000000001</v>
@@ -23419,7 +23503,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>98</v>
@@ -23431,10 +23515,10 @@
         <v>75</v>
       </c>
       <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
         <v>106</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -23443,7 +23527,7 @@
         <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M8" s="11">
         <v>1.7198006708505424</v>
@@ -23532,7 +23616,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>98</v>
@@ -23544,10 +23628,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
         <v>106</v>
-      </c>
-      <c r="H9" t="s">
-        <v>107</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -23645,7 +23729,7 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>98</v>
@@ -23657,10 +23741,10 @@
         <v>122.5</v>
       </c>
       <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
         <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>105</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
@@ -23758,7 +23842,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>98</v>
@@ -23770,10 +23854,10 @@
         <v>150</v>
       </c>
       <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
         <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>105</v>
       </c>
       <c r="I11" t="s">
         <v>77</v>
@@ -23872,7 +23956,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>98</v>
@@ -23884,10 +23968,10 @@
         <v>200</v>
       </c>
       <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
         <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
@@ -23986,7 +24070,7 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>98</v>
@@ -23998,10 +24082,10 @@
         <v>250</v>
       </c>
       <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
         <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>105</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
@@ -24099,7 +24183,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>98</v>
@@ -24111,10 +24195,10 @@
         <v>400</v>
       </c>
       <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
         <v>104</v>
-      </c>
-      <c r="H14" t="s">
-        <v>105</v>
       </c>
       <c r="I14" t="s">
         <v>77</v>
@@ -24212,7 +24296,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>98</v>
@@ -24224,10 +24308,10 @@
         <v>600</v>
       </c>
       <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
         <v>104</v>
-      </c>
-      <c r="H15" t="s">
-        <v>105</v>
       </c>
       <c r="I15" t="s">
         <v>77</v>
@@ -24326,7 +24410,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>98</v>
@@ -24338,10 +24422,10 @@
         <v>850</v>
       </c>
       <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
         <v>104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
       </c>
       <c r="I16" t="s">
         <v>77</v>
@@ -24440,7 +24524,7 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>98</v>
@@ -24452,10 +24536,10 @@
         <v>1195</v>
       </c>
       <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
         <v>104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>105</v>
       </c>
       <c r="I17" t="s">
         <v>77</v>
@@ -24554,7 +24638,7 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>98</v>
@@ -24566,10 +24650,10 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
         <v>108</v>
-      </c>
-      <c r="H18" t="s">
-        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>75</v>
@@ -24578,7 +24662,7 @@
         <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M18" s="11">
         <v>6.1105278786523494</v>
@@ -24667,7 +24751,7 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>98</v>
@@ -24679,10 +24763,10 @@
         <v>120</v>
       </c>
       <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
         <v>108</v>
-      </c>
-      <c r="H19" t="s">
-        <v>109</v>
       </c>
       <c r="I19" t="s">
         <v>75</v>
@@ -24774,7 +24858,7 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>98</v>
@@ -24786,10 +24870,10 @@
         <v>150</v>
       </c>
       <c r="G20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" t="s">
         <v>108</v>
-      </c>
-      <c r="H20" t="s">
-        <v>109</v>
       </c>
       <c r="I20" t="s">
         <v>75</v>
@@ -24875,7 +24959,7 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>98</v>
@@ -24887,10 +24971,10 @@
         <v>250</v>
       </c>
       <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
         <v>108</v>
-      </c>
-      <c r="H21" t="s">
-        <v>109</v>
       </c>
       <c r="I21" t="s">
         <v>75</v>
@@ -24984,7 +25068,7 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>98</v>
@@ -24996,10 +25080,10 @@
         <v>250</v>
       </c>
       <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
         <v>108</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
       </c>
       <c r="I22" t="s">
         <v>75</v>
@@ -25093,7 +25177,7 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>98</v>
@@ -25105,10 +25189,10 @@
         <v>400</v>
       </c>
       <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
         <v>108</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
       </c>
       <c r="I23" t="s">
         <v>75</v>
@@ -25194,7 +25278,7 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>98</v>
@@ -25206,10 +25290,10 @@
         <v>600</v>
       </c>
       <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
         <v>108</v>
-      </c>
-      <c r="H24" t="s">
-        <v>109</v>
       </c>
       <c r="I24" t="s">
         <v>75</v>
@@ -25291,7 +25375,7 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>98</v>
@@ -25303,10 +25387,10 @@
         <v>850</v>
       </c>
       <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
         <v>108</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
       </c>
       <c r="I25" t="s">
         <v>75</v>
@@ -25396,7 +25480,7 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>98</v>
@@ -25408,10 +25492,10 @@
         <v>1195</v>
       </c>
       <c r="G26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
         <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>109</v>
       </c>
       <c r="I26" t="s">
         <v>75</v>
@@ -25497,7 +25581,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>98</v>
@@ -25517,6 +25601,9 @@
       <c r="H27" t="s">
         <v>88</v>
       </c>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
       <c r="J27" t="s">
         <v>80</v>
       </c>
@@ -25610,7 +25697,7 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>98</v>
@@ -25630,6 +25717,9 @@
       <c r="H28" t="s">
         <v>88</v>
       </c>
+      <c r="I28" t="s">
+        <v>90</v>
+      </c>
       <c r="J28" t="s">
         <v>80</v>
       </c>
@@ -25723,7 +25813,7 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>98</v>
@@ -25743,6 +25833,9 @@
       <c r="H29" t="s">
         <v>39</v>
       </c>
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
       <c r="J29" t="s">
         <v>80</v>
       </c>
@@ -25836,7 +25929,7 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>98</v>
@@ -25856,6 +25949,9 @@
       <c r="H30" t="s">
         <v>39</v>
       </c>
+      <c r="I30" t="s">
+        <v>90</v>
+      </c>
       <c r="J30" t="s">
         <v>80</v>
       </c>
@@ -25949,7 +26045,7 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>98</v>
@@ -25969,6 +26065,9 @@
       <c r="H31" t="s">
         <v>39</v>
       </c>
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
       <c r="J31" t="s">
         <v>80</v>
       </c>
@@ -26062,7 +26161,7 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>98</v>
@@ -26082,6 +26181,9 @@
       <c r="H32" t="s">
         <v>39</v>
       </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
       <c r="J32" t="s">
         <v>80</v>
       </c>
@@ -26175,7 +26277,7 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>98</v>
@@ -26195,6 +26297,9 @@
       <c r="H33" t="s">
         <v>39</v>
       </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
       <c r="J33" t="s">
         <v>80</v>
       </c>
@@ -26288,7 +26393,7 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>98</v>
@@ -26308,6 +26413,9 @@
       <c r="H34" t="s">
         <v>39</v>
       </c>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
       <c r="J34" t="s">
         <v>80</v>
       </c>
@@ -26401,7 +26509,7 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>98</v>
@@ -26421,6 +26529,9 @@
       <c r="H35" t="s">
         <v>39</v>
       </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
       <c r="J35" t="s">
         <v>80</v>
       </c>
@@ -26514,7 +26625,7 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>98</v>
@@ -26534,6 +26645,9 @@
       <c r="H36" t="s">
         <v>39</v>
       </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
       <c r="J36" t="s">
         <v>80</v>
       </c>
@@ -26627,7 +26741,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>98</v>
@@ -26647,6 +26761,9 @@
       <c r="H37" t="s">
         <v>39</v>
       </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
       <c r="J37" t="s">
         <v>80</v>
       </c>
@@ -26740,7 +26857,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>98</v>
@@ -26760,6 +26877,9 @@
       <c r="H38" t="s">
         <v>39</v>
       </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
       <c r="J38" t="s">
         <v>80</v>
       </c>
@@ -26853,7 +26973,7 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>98</v>
@@ -26873,6 +26993,9 @@
       <c r="H39" t="s">
         <v>41</v>
       </c>
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
       <c r="J39" t="s">
         <v>80</v>
       </c>
@@ -26966,7 +27089,7 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>98</v>
@@ -26986,6 +27109,9 @@
       <c r="H40" t="s">
         <v>41</v>
       </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
       <c r="J40" t="s">
         <v>80</v>
       </c>
@@ -27079,7 +27205,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>98</v>
@@ -27099,6 +27225,9 @@
       <c r="H41" t="s">
         <v>41</v>
       </c>
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
       <c r="J41" t="s">
         <v>80</v>
       </c>
@@ -27192,7 +27321,7 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>98</v>
@@ -27212,6 +27341,9 @@
       <c r="H42" t="s">
         <v>41</v>
       </c>
+      <c r="I42" t="s">
+        <v>90</v>
+      </c>
       <c r="J42" t="s">
         <v>80</v>
       </c>
@@ -27305,7 +27437,7 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>98</v>
@@ -27325,6 +27457,9 @@
       <c r="H43" t="s">
         <v>41</v>
       </c>
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
       <c r="J43" t="s">
         <v>80</v>
       </c>
@@ -27418,7 +27553,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>98</v>
@@ -27438,6 +27573,9 @@
       <c r="H44" t="s">
         <v>41</v>
       </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
       <c r="J44" t="s">
         <v>80</v>
       </c>
@@ -27531,7 +27669,7 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>98</v>
@@ -27551,6 +27689,9 @@
       <c r="H45" t="s">
         <v>41</v>
       </c>
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
       <c r="J45" t="s">
         <v>80</v>
       </c>
@@ -27644,7 +27785,7 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>98</v>
@@ -27664,6 +27805,9 @@
       <c r="H46" t="s">
         <v>41</v>
       </c>
+      <c r="I46" t="s">
+        <v>90</v>
+      </c>
       <c r="J46" t="s">
         <v>80</v>
       </c>
@@ -27757,7 +27901,7 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>98</v>
@@ -27777,6 +27921,9 @@
       <c r="H47" t="s">
         <v>41</v>
       </c>
+      <c r="I47" t="s">
+        <v>90</v>
+      </c>
       <c r="J47" t="s">
         <v>80</v>
       </c>
@@ -27870,7 +28017,7 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>98</v>
@@ -27890,6 +28037,9 @@
       <c r="H48" t="s">
         <v>41</v>
       </c>
+      <c r="I48" t="s">
+        <v>90</v>
+      </c>
       <c r="J48" t="s">
         <v>80</v>
       </c>
@@ -27983,7 +28133,7 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>98</v>
@@ -28001,13 +28151,16 @@
         <v>82</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I49" t="s">
+        <v>91</v>
       </c>
       <c r="J49" t="s">
         <v>80</v>
       </c>
       <c r="K49" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="M49" s="11">
         <v>9.259666666666666</v>
@@ -28092,7 +28245,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>98</v>
@@ -28110,13 +28263,16 @@
         <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I50" t="s">
+        <v>91</v>
       </c>
       <c r="J50" t="s">
         <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="M50" s="11">
         <v>21.085249999999998</v>
@@ -28203,7 +28359,7 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>98</v>
@@ -28221,13 +28377,16 @@
         <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I51" t="s">
+        <v>91</v>
       </c>
       <c r="J51" t="s">
         <v>80</v>
       </c>
       <c r="K51" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="M51" s="11">
         <v>25.514250000000001</v>
@@ -28316,7 +28475,7 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>98</v>
@@ -28334,13 +28493,16 @@
         <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I52" t="s">
+        <v>92</v>
       </c>
       <c r="J52" t="s">
         <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M52" s="11">
         <v>10.725666666666667</v>
@@ -28429,7 +28591,7 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>98</v>
@@ -28447,13 +28609,16 @@
         <v>83</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
       </c>
       <c r="J53" t="s">
         <v>80</v>
       </c>
       <c r="K53" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M53" s="12">
         <v>26.044499999999999</v>
@@ -28538,7 +28703,7 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>98</v>
@@ -28556,13 +28721,16 @@
         <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I54" t="s">
+        <v>95</v>
       </c>
       <c r="J54" t="s">
         <v>80</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="M54" s="12">
         <v>13.623749999999999</v>
@@ -28647,7 +28815,7 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>98</v>
@@ -28665,13 +28833,16 @@
         <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I55" t="s">
+        <v>95</v>
       </c>
       <c r="J55" t="s">
         <v>80</v>
       </c>
       <c r="K55" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="M55" s="12">
         <v>14.647</v>
@@ -28756,7 +28927,7 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>98</v>
@@ -28774,13 +28945,16 @@
         <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I56" t="s">
+        <v>111</v>
       </c>
       <c r="J56" t="s">
         <v>80</v>
       </c>
       <c r="K56" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="M56" s="12">
         <v>15.287750000000001</v>
@@ -28865,7 +29039,7 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>98</v>
@@ -28883,13 +29057,16 @@
         <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I57" t="s">
+        <v>93</v>
       </c>
       <c r="J57" t="s">
         <v>80</v>
       </c>
       <c r="K57" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="M57" s="12">
         <v>11.615666666666668</v>
@@ -28974,7 +29151,7 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>98</v>
@@ -28992,13 +29169,16 @@
         <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I58" t="s">
+        <v>93</v>
       </c>
       <c r="J58" t="s">
         <v>80</v>
       </c>
       <c r="K58" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="M58" s="12">
         <v>16.294333333333331</v>
@@ -29083,7 +29263,7 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>98</v>
@@ -29101,13 +29281,16 @@
         <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I59" t="s">
+        <v>93</v>
       </c>
       <c r="J59" t="s">
         <v>80</v>
       </c>
       <c r="K59" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="M59" s="12">
         <v>20.921000000000003</v>
@@ -29192,7 +29375,7 @@
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>98</v>
@@ -29210,13 +29393,16 @@
         <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I60" t="s">
+        <v>94</v>
       </c>
       <c r="J60" t="s">
         <v>80</v>
       </c>
       <c r="K60" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M60" s="11">
         <v>16.665333333333333</v>
@@ -29301,7 +29487,7 @@
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>98</v>
@@ -29319,13 +29505,16 @@
         <v>87</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I61" t="s">
+        <v>94</v>
       </c>
       <c r="J61" t="s">
         <v>80</v>
       </c>
       <c r="K61" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M61" s="11">
         <v>19.497666666666667</v>
@@ -29410,7 +29599,7 @@
     </row>
     <row r="62" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>98</v>
@@ -29428,13 +29617,16 @@
         <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
       </c>
       <c r="J62" t="s">
         <v>80</v>
       </c>
       <c r="K62" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M62" s="11">
         <v>27.137600000000003</v>
@@ -29519,7 +29711,7 @@
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>98</v>
@@ -29537,13 +29729,16 @@
         <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I63" t="s">
+        <v>100</v>
       </c>
       <c r="J63" t="s">
         <v>80</v>
       </c>
       <c r="K63" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M63" s="11">
         <v>23.586500000000001</v>
@@ -29630,7 +29825,7 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>98</v>
@@ -29648,13 +29843,16 @@
         <v>97</v>
       </c>
       <c r="H64" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
       </c>
       <c r="J64" t="s">
         <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M64" s="11">
         <v>24.207916666666666</v>
